--- a/repos.xlsx
+++ b/repos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -42,49 +42,254 @@
     <x:t xml:space="preserve">Имя</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Введите ваше имя</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Введите код для просмотра вашего портфолио в приложении</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">На каком направлении вы обучаетесь
 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">На каком курсе ты обучаешься?
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">какой-то предмет на третьем курсе
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">какой-то предмет на втором курсе
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">какой-то предмет на первом курсе
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">На каком курсе ты обучаешься?
-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">stud0000243830@study.utmn.ru</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Дмитрий Катанаев</x:t>
+    <x:t xml:space="preserve">На каком семестре ты обучаешься?
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КОНЕЧНЫЕ АВТОМАТЫ И ФОРМАЛЬНЫЕ ЯЗЫКИ (8 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ОБРАБОТКА И АНАЛИЗ ТЕКСТА НА ЕСТЕСТВЕННЫХ ЯЗЫКАХ (7 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ОТКРЫТЫЕ ТЕХНОЛОГИИ РАЗРАБОТКИ ПРОГРАММНОГО ОБЕСПЕЧЕНИЯ (7 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ПРОГРАММИРОВАНИЕ ДЛЯ ВСТРОЕННЫХ СИСТЕМ (7 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">АРХИТЕКТУРА СИСТЕМ ОБРАБОТКИ БОЛЬШИХ ДАННЫХ (7 семестр) 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">БЕЗОПАСНОСТЬ КОРПОРАТИВНЫХ ИНФОРМАЦИОННЫХ СЕТЕЙ (6 семестр)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">АЛГОРИТМЫ И ТЕХНОЛОГИИ ПАРАЛЛЕЛЬНЫХ И РАСПРЕДЕЛЕННЫХ
+ВЫЧИСЛЕНИЙ (6 семестр)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КОМПЬЮТЕРНОЕ ЗРЕНИЕ (6 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">МЕТОДЫ И ТЕХНОЛОГИИ МАШИННОГО ОБУЧЕНИЯ (5 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">РАЗРАБОТКА МОБИЛЬНЫХ ПРИЛОЖЕНИЙ (5 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">МАТЕМАТИЧЕСКОЕ МОДЕЛИРОВАНИЕ ПРИРОДНЫХ СИСТЕМ (5 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">МАТЕМАТИЧЕСКИЕ ОСНОВЫ ИСКУССТВЕННЫХ НЕЙРОННЫХ СЕТЕЙ (4 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">WEB-ТЕХНОЛОГИИ (4 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ПРОГРАММИРОВАНИЕ НА ЯЗЫКЕ JAVA (4 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">АРХИТЕКТУРА КОМПЬЮТЕРА И ОПЕРАЦИОННЫЕ СИСТЕМЫ (3 семестр)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">МЕТОДЫ И СРЕДСТВА ПРОЕКТИРОВАНИЯ ПОЛЬЗОВАТЕЛЬСКОГО
+ИНТЕРФЕЙСА (3 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ДИСКРЕТНАЯ МАТЕМАТИКА И ИССЛЕДОВАНИЕ ОПЕРАЦИЙ (3 семестр)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">МАТЕМАТИЧЕСКИЕ ОСНОВЫ АНАЛИЗА ДАННЫХ (3 семестр)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ДИСКРЕТНАЯ МАТЕМАТИКА (2 семестр)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ОБЪЕКТНО-ОРИЕНТИРОВАННОЕ ПРОГРАММИРОВАНИЕ (2 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ДОПОЛНИТЕЛЬНЫЕ ГЛАВЫ МАТЕМАТИЧЕСКОГО АНАЛИЗА (2 семестр)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ЛИНЕЙНАЯ АЛГЕБРА И ГЕОМЕТРИЯ (1 семестр)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">stud0000241819@study.utmn.ru</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Владислав Лебедев</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Влад</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Какой нахуй код</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">моаис</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">3</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">5</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">другое</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4</x:t>
+    <x:t xml:space="preserve">66</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">84</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">63</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">42</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">67</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">19</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">33</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">41</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">stud0000250993@study.utmn.ru</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Валерия Бородина</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Лера </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">meow</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">83</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">96</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">73.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">98</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">100</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">95</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">99.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">70</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">stud0000246780@study.utmn.ru</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Григорий Дрожащих</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Григорий </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">123</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">86</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">82</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">65</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">93</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">81</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">61</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">68.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">stud0000247809@study.utmn.ru</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Арсений Ходырев</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Арсений</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">242424</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">77.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">77.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">97</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">68</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">77</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">69</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -181,20 +386,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K3" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:K3"/>
-  <x:tableColumns count="11">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AE5" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AE5"/>
+  <x:tableColumns count="31">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Время начала" dataDxfId="3"/>
     <x:tableColumn id="3" uniqueName="3" name="Время выполнения" dataDxfId="3"/>
     <x:tableColumn id="4" uniqueName="4" name="Почта" dataDxfId="0"/>
     <x:tableColumn id="5" uniqueName="5" name="Имя" dataDxfId="0"/>
-    <x:tableColumn id="6" uniqueName="6" name="На каком направлении вы обучаетесь&#10;" dataDxfId="0"/>
-    <x:tableColumn id="7" uniqueName="7" name="На каком курсе ты обучаешься?&#10;" dataDxfId="0"/>
-    <x:tableColumn id="8" uniqueName="8" name="какой-то предмет на третьем курсе&#10;" dataDxfId="0"/>
-    <x:tableColumn id="9" uniqueName="9" name="какой-то предмет на втором курсе&#10;" dataDxfId="0"/>
-    <x:tableColumn id="10" uniqueName="10" name="какой-то предмет на первом курсе&#10;" dataDxfId="0"/>
-    <x:tableColumn id="11" uniqueName="11" name="На каком курсе ты обучаешься?&#10;2" dataDxfId="0"/>
+    <x:tableColumn id="6" uniqueName="6" name="Введите ваше имя" dataDxfId="0"/>
+    <x:tableColumn id="7" uniqueName="7" name="Введите код для просмотра вашего портфолио в приложении" dataDxfId="0"/>
+    <x:tableColumn id="8" uniqueName="8" name="На каком направлении вы обучаетесь&#10;" dataDxfId="0"/>
+    <x:tableColumn id="9" uniqueName="9" name="На каком семестре ты обучаешься?&#10;" dataDxfId="0"/>
+    <x:tableColumn id="10" uniqueName="10" name="КОНЕЧНЫЕ АВТОМАТЫ И ФОРМАЛЬНЫЕ ЯЗЫКИ (8 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="11" uniqueName="11" name="ОБРАБОТКА И АНАЛИЗ ТЕКСТА НА ЕСТЕСТВЕННЫХ ЯЗЫКАХ (7 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="12" uniqueName="12" name="ОТКРЫТЫЕ ТЕХНОЛОГИИ РАЗРАБОТКИ ПРОГРАММНОГО ОБЕСПЕЧЕНИЯ (7 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="13" uniqueName="13" name="ПРОГРАММИРОВАНИЕ ДЛЯ ВСТРОЕННЫХ СИСТЕМ (7 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="14" uniqueName="14" name="АРХИТЕКТУРА СИСТЕМ ОБРАБОТКИ БОЛЬШИХ ДАННЫХ (7 семестр) &#10;" dataDxfId="0"/>
+    <x:tableColumn id="15" uniqueName="15" name="БЕЗОПАСНОСТЬ КОРПОРАТИВНЫХ ИНФОРМАЦИОННЫХ СЕТЕЙ (6 семестр)" dataDxfId="0"/>
+    <x:tableColumn id="16" uniqueName="16" name="АЛГОРИТМЫ И ТЕХНОЛОГИИ ПАРАЛЛЕЛЬНЫХ И РАСПРЕДЕЛЕННЫХ&#10;ВЫЧИСЛЕНИЙ (6 семестр)" dataDxfId="0"/>
+    <x:tableColumn id="17" uniqueName="17" name="КОМПЬЮТЕРНОЕ ЗРЕНИЕ (6 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="18" uniqueName="18" name="МЕТОДЫ И ТЕХНОЛОГИИ МАШИННОГО ОБУЧЕНИЯ (5 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="19" uniqueName="19" name="РАЗРАБОТКА МОБИЛЬНЫХ ПРИЛОЖЕНИЙ (5 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="20" uniqueName="20" name="МАТЕМАТИЧЕСКОЕ МОДЕЛИРОВАНИЕ ПРИРОДНЫХ СИСТЕМ (5 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="21" uniqueName="21" name="МАТЕМАТИЧЕСКИЕ ОСНОВЫ ИСКУССТВЕННЫХ НЕЙРОННЫХ СЕТЕЙ (4 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="22" uniqueName="22" name="WEB-ТЕХНОЛОГИИ (4 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="23" uniqueName="23" name="ПРОГРАММИРОВАНИЕ НА ЯЗЫКЕ JAVA (4 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="24" uniqueName="24" name="АРХИТЕКТУРА КОМПЬЮТЕРА И ОПЕРАЦИОННЫЕ СИСТЕМЫ (3 семестр)" dataDxfId="0"/>
+    <x:tableColumn id="25" uniqueName="25" name="МЕТОДЫ И СРЕДСТВА ПРОЕКТИРОВАНИЯ ПОЛЬЗОВАТЕЛЬСКОГО&#10;ИНТЕРФЕЙСА (3 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="26" uniqueName="26" name="ДИСКРЕТНАЯ МАТЕМАТИКА И ИССЛЕДОВАНИЕ ОПЕРАЦИЙ (3 семестр)" dataDxfId="0"/>
+    <x:tableColumn id="27" uniqueName="27" name="МАТЕМАТИЧЕСКИЕ ОСНОВЫ АНАЛИЗА ДАННЫХ (3 семестр)" dataDxfId="0"/>
+    <x:tableColumn id="28" uniqueName="28" name="ДИСКРЕТНАЯ МАТЕМАТИКА (2 семестр)" dataDxfId="0"/>
+    <x:tableColumn id="29" uniqueName="29" name="ОБЪЕКТНО-ОРИЕНТИРОВАННОЕ ПРОГРАММИРОВАНИЕ (2 семестр)&#10;" dataDxfId="0"/>
+    <x:tableColumn id="30" uniqueName="30" name="ДОПОЛНИТЕЛЬНЫЕ ГЛАВЫ МАТЕМАТИЧЕСКОГО АНАЛИЗА (2 семестр)" dataDxfId="0"/>
+    <x:tableColumn id="31" uniqueName="31" name="ЛИНЕЙНАЯ АЛГЕБРА И ГЕОМЕТРИЯ (1 семестр)&#10;" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -516,6 +741,26 @@
     <x:col min="9" max="9" width="20" hidden="0" bestFit="1" customWidth="1"/>
     <x:col min="10" max="10" width="20" hidden="0" bestFit="1" customWidth="1"/>
     <x:col min="11" max="11" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="14" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="15" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="16" max="16" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="17" max="17" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="18" max="18" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="19" max="19" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="20" max="20" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="21" max="21" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="22" max="22" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="23" max="23" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="24" max="24" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="25" max="25" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="26" max="26" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="27" max="27" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="28" max="28" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="29" max="29" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="30" max="30" width="20" hidden="0" bestFit="1" customWidth="1"/>
+    <x:col min="31" max="31" width="20" hidden="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" hidden="0">
@@ -552,76 +797,364 @@
       <x:c r="K1" s="10" t="s">
         <x:v>10</x:v>
       </x:c>
+      <x:c r="L1" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="U1" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="V1" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="W1" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="X1" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Y1" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Z1" s="10" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AA1" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="AB1" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="AC1" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="AD1" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AE1" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" hidden="0">
       <x:c r="A2">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="2">
-        <x:v>44874.385</x:v>
+        <x:v>44874.6419560185</x:v>
       </x:c>
       <x:c r="C2" s="2">
-        <x:v>44874.3850694444</x:v>
+        <x:v>44874.6443171296</x:v>
       </x:c>
       <x:c r="D2" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E2" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F2" s="10" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H2" s="10" t="s"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G2" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H2" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
       <x:c r="I2" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J2" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J2" s="10" t="s"/>
       <x:c r="K2" s="10" t="s"/>
+      <x:c r="L2" s="10" t="s"/>
+      <x:c r="M2" s="10" t="s"/>
+      <x:c r="N2" s="10" t="s"/>
+      <x:c r="O2" s="10" t="s"/>
+      <x:c r="P2" s="10" t="s"/>
+      <x:c r="Q2" s="10" t="s"/>
+      <x:c r="R2" s="10" t="s"/>
+      <x:c r="S2" s="10" t="s"/>
+      <x:c r="T2" s="10" t="s"/>
+      <x:c r="U2" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="V2" s="7" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="W2" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X2" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Y2" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Z2" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA2" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AB2" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AC2" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AD2" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="AE2" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" hidden="0">
       <x:c r="A3">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="2">
-        <x:v>44874.3850925926</x:v>
+        <x:v>44874.6962731481</x:v>
       </x:c>
       <x:c r="C3" s="2">
-        <x:v>44874.3851736111</x:v>
+        <x:v>44874.7000578704</x:v>
       </x:c>
       <x:c r="D3" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E3" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F3" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G3" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H3" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I3" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J3" s="10" t="s"/>
+      <x:c r="K3" s="10" t="s"/>
+      <x:c r="L3" s="10" t="s"/>
+      <x:c r="M3" s="10" t="s"/>
+      <x:c r="N3" s="10" t="s"/>
+      <x:c r="O3" s="10" t="s"/>
+      <x:c r="P3" s="10" t="s"/>
+      <x:c r="Q3" s="10" t="s"/>
+      <x:c r="R3" s="10" t="s"/>
+      <x:c r="S3" s="10" t="s"/>
+      <x:c r="T3" s="10" t="s"/>
+      <x:c r="U3" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="V3" s="7" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="W3" s="7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="X3" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="Y3" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Z3" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AA3" s="7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="AB3" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AC3" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="AD3" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AE3" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" hidden="0">
+      <x:c r="A4">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E3" s="10" t="s">
+      <x:c r="B4" s="2">
+        <x:v>44874.7209375</x:v>
+      </x:c>
+      <x:c r="C4" s="2">
+        <x:v>44874.7236458333</x:v>
+      </x:c>
+      <x:c r="D4" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E4" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F4" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G4" s="7" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H4" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I4" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J4" s="10" t="s"/>
+      <x:c r="K4" s="10" t="s"/>
+      <x:c r="L4" s="10" t="s"/>
+      <x:c r="M4" s="10" t="s"/>
+      <x:c r="N4" s="10" t="s"/>
+      <x:c r="O4" s="10" t="s"/>
+      <x:c r="P4" s="10" t="s"/>
+      <x:c r="Q4" s="10" t="s"/>
+      <x:c r="R4" s="10" t="s"/>
+      <x:c r="S4" s="10" t="s"/>
+      <x:c r="T4" s="10" t="s"/>
+      <x:c r="U4" s="7" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="V4" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="W4" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="X4" s="7" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="Y4" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Z4" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="AA4" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="AB4" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AC4" s="7" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="AD4" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="AE4" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" hidden="0">
+      <x:c r="A5">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F3" s="10" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G3" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H3" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I3" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J3" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="K3" s="10" t="s"/>
+      <x:c r="B5" s="2">
+        <x:v>44875.4093634259</x:v>
+      </x:c>
+      <x:c r="C5" s="2">
+        <x:v>44875.4120486111</x:v>
+      </x:c>
+      <x:c r="D5" s="10" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E5" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F5" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G5" s="7" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H5" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I5" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J5" s="10" t="s"/>
+      <x:c r="K5" s="10" t="s"/>
+      <x:c r="L5" s="10" t="s"/>
+      <x:c r="M5" s="10" t="s"/>
+      <x:c r="N5" s="10" t="s"/>
+      <x:c r="O5" s="10" t="s"/>
+      <x:c r="P5" s="10" t="s"/>
+      <x:c r="Q5" s="10" t="s"/>
+      <x:c r="R5" s="10" t="s"/>
+      <x:c r="S5" s="10" t="s"/>
+      <x:c r="T5" s="10" t="s"/>
+      <x:c r="U5" s="7" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="V5" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="W5" s="7" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="X5" s="7" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Y5" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Z5" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AA5" s="7" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="AB5" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AC5" s="7" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AD5" s="7" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AE5" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Reb16ee9a012b473d"/>
+    <x:tablePart r:id="R00b4b9697ecf45b1"/>
   </x:tableParts>
 </x:worksheet>
 </file>